--- a/biology/Médecine/Valeur_prédictive/Valeur_prédictive.xlsx
+++ b/biology/Médecine/Valeur_prédictive/Valeur_prédictive.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Valeur_pr%C3%A9dictive</t>
+          <t>Valeur_prédictive</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En statistique et en épidémiologie, la valeur prédictive d'un test est la probabilité qu'une condition soit présente en fonction du résultat de ce test. Le test doit être dichotomique, c’est-à-dire qu’il ne peut donner que deux résultats différents. La valeur prédictive positive est la probabilité que la condition soit présente lorsque le test est positif. La valeur prédictive négative est la probabilité que la condition ne soit pas présente lorsque le test est négatif.
 La valeur prédictive positive (VPP) est fonction de la sensibilité (
@@ -495,7 +507,7 @@
           P
             r
     {\displaystyle P_{r}}
-) de la condition dans la population étudiée, suivant la formule[1] :
+) de la condition dans la population étudiée, suivant la formule :
           VPP
         =
                 S
@@ -564,7 +576,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Valeur_pr%C3%A9dictive</t>
+          <t>Valeur_prédictive</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -582,7 +594,9 @@
           <t>Exemple</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le taux de D-dimères est un examen para clinique utilisé notamment pour exclure une embolie pulmonaire. Dans ce cas-ci, la valeur prédictive positive est la probabilité d'avoir une embolie pulmonaire si le test des D-dimères est positif, et la valeur prédictive négative est la probabilité de ne pas avoir d'embolie pulmonaire si le test est négatif.
 Comme cet examen a une bonne valeur prédictive négative (plus de 95 %), un résultat négatif permet d'exclure cette maladie avec confiance. Par contre, puisqu'il n'a pas une bonne valeur prédictive positive, un résultat positif n'indique aucunement qu'il s'agit d'une embolie pulmonaire.
